--- a/SCLPsolver/results_reentrant_new3.xlsx
+++ b/SCLPsolver/results_reentrant_new3.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCLP-python\SCLPsolver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataD\Work\CERBERO\CLP\SCLPsolver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{215081D6-9AA9-445A-BE1C-DFE2EA1E87D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9E1426-86C2-4272-A32B-6C70F1C8D4D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="calculation" sheetId="3" r:id="rId1"/>
-    <sheet name="results_reentrant_new3" sheetId="1" r:id="rId2"/>
+    <sheet name="summary (2)" sheetId="5" r:id="rId1"/>
+    <sheet name="summary" sheetId="4" r:id="rId2"/>
+    <sheet name="calculation" sheetId="3" r:id="rId3"/>
+    <sheet name="results_reentrant_new3" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t>file</t>
   </si>
@@ -292,11 +305,22 @@
   <si>
     <t>simple_reentrant_K1000_I50_T1500.0_ccs0_cs10_alpha_rate10.8_alpha_rate20.45_seed1009_data.dat</t>
   </si>
+  <si>
+    <t>servers</t>
+  </si>
+  <si>
+    <t>buffers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -774,9 +798,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -833,6 +862,2937 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary (2)'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$D$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$D$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,##0.00">
+                  <c:v>51.474429633351562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8726574514720165</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>0.39991855820272004</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>2.2483260491562816E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7F4-40D3-9B6A-A16983BF25F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary (2)'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$D$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$D$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,##0.00">
+                  <c:v>117.15571586872537</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.361441775709281</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>1.0133569900839439</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>6.7179286525304222E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B7F4-40D3-9B6A-A16983BF25F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary (2)'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$D$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$D$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,##0.00">
+                  <c:v>138.81344536977039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.535044484289141</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>1.2362814937298803</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>9.0469825503388779E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B7F4-40D3-9B6A-A16983BF25F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary (2)'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$D$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$D$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,##0.00">
+                  <c:v>204.02286998274604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.966325345267041</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>1.8656002222524819</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>0.14569657621072535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B7F4-40D3-9B6A-A16983BF25F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary (2)'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$D$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$D$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,##0.00">
+                  <c:v>234.72008072797712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.103680215464998</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>2.1831077094344211</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>0.17640442045589141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B7F4-40D3-9B6A-A16983BF25F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="782769456"/>
+        <c:axId val="50449152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="782769456"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>discretizaTion</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50449152"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50449152"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0000000000000002E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>relative error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782769456"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary (2)'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$M$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$M$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.5306463886158802E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2546465534989021E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>0.76293015791541907</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>12.449172044802728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FDC-4FC2-9657-63FDD56E79E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary (2)'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$M$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$M$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.3296656087759254E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8894112967984116E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>0.33557876748845655</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>7.1045069368166951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4FDC-4FC2-9657-63FDD56E79E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary (2)'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$M$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$M$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.2108627089847677E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6537795578884695E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>0.21411880052495871</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>4.4535650873234269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4FDC-4FC2-9657-63FDD56E79E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary (2)'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$M$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$M$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.3133261318906396E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9313529840034491E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>0.12494276291633979</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>2.4286616609632308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4FDC-4FC2-9657-63FDD56E79E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summary (2)'!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$M$1:$P$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary (2)'!$M$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.4273064673695122E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.56289603535129E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>8.1261597593752816E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>1.6173879558718265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4FDC-4FC2-9657-63FDD56E79E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="782769456"/>
+        <c:axId val="50449152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="782769456"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>discretizaTion</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50449152"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50449152"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0000000000000002E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>relative TIME</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782769456"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BDD4D6-A224-499E-93D1-49D96EE49FF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5757E9E6-62F2-4430-B663-6E0555DD68E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="summary (2)"/>
+      <sheetName val="summary"/>
+      <sheetName val="calculation"/>
+      <sheetName val="results_reentrant_new2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="D1">
+            <v>1</v>
+          </cell>
+          <cell r="E1">
+            <v>10</v>
+          </cell>
+          <cell r="F1">
+            <v>100</v>
+          </cell>
+          <cell r="G1">
+            <v>1000</v>
+          </cell>
+          <cell r="M1">
+            <v>1</v>
+          </cell>
+          <cell r="N1">
+            <v>10</v>
+          </cell>
+          <cell r="O1">
+            <v>100</v>
+          </cell>
+          <cell r="P1">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>20</v>
+          </cell>
+          <cell r="D2">
+            <v>0.68466058138258867</v>
+          </cell>
+          <cell r="E2">
+            <v>6.2994469946519499E-2</v>
+          </cell>
+          <cell r="F2">
+            <v>4.5166979876594873E-3</v>
+          </cell>
+          <cell r="G2">
+            <v>1.663769877522818E-4</v>
+          </cell>
+          <cell r="J2">
+            <v>20</v>
+          </cell>
+          <cell r="M2">
+            <v>2.5315228283677632E-2</v>
+          </cell>
+          <cell r="N2">
+            <v>0.1358232646218886</v>
+          </cell>
+          <cell r="O2">
+            <v>1.9133767597192719</v>
+          </cell>
+          <cell r="P2">
+            <v>58.499778939838578</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>30</v>
+          </cell>
+          <cell r="D3">
+            <v>0.51226066469999998</v>
+          </cell>
+          <cell r="E3">
+            <v>4.8211365200000002E-2</v>
+          </cell>
+          <cell r="F3">
+            <v>3.6583678999999999E-3</v>
+          </cell>
+          <cell r="G3">
+            <v>1.5666930000000001E-4</v>
+          </cell>
+          <cell r="J3">
+            <v>30</v>
+          </cell>
+          <cell r="M3">
+            <v>1.0895375165380066E-2</v>
+          </cell>
+          <cell r="N3">
+            <v>5.8388059573771377E-2</v>
+          </cell>
+          <cell r="O3">
+            <v>0.76433765387213692</v>
+          </cell>
+          <cell r="P3">
+            <v>26.118488370195745</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>40</v>
+          </cell>
+          <cell r="D4">
+            <v>0.31586737732094539</v>
+          </cell>
+          <cell r="E4">
+            <v>3.0042048441949892E-2</v>
+          </cell>
+          <cell r="F4">
+            <v>2.3978238227922019E-3</v>
+          </cell>
+          <cell r="G4">
+            <v>1.1411371380863635E-4</v>
+          </cell>
+          <cell r="J4">
+            <v>40</v>
+          </cell>
+          <cell r="M4">
+            <v>6.3216507110592218E-3</v>
+          </cell>
+          <cell r="N4">
+            <v>4.3713772912265539E-2</v>
+          </cell>
+          <cell r="O4">
+            <v>0.61166423997864328</v>
+          </cell>
+          <cell r="P4">
+            <v>17.716390575370411</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>50</v>
+          </cell>
+          <cell r="D5">
+            <v>0.25395554640000001</v>
+          </cell>
+          <cell r="E5">
+            <v>2.4355514799999999E-2</v>
+          </cell>
+          <cell r="F5">
+            <v>1.9965521E-3</v>
+          </cell>
+          <cell r="G5">
+            <v>1.0183539999999999E-4</v>
+          </cell>
+          <cell r="J5">
+            <v>50</v>
+          </cell>
+          <cell r="M5">
+            <v>4.6016291656544358E-3</v>
+          </cell>
+          <cell r="N5">
+            <v>2.429059311432533E-2</v>
+          </cell>
+          <cell r="O5">
+            <v>0.51345114662605973</v>
+          </cell>
+          <cell r="P5">
+            <v>17.980969470623897</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>60</v>
+          </cell>
+          <cell r="D6">
+            <v>0.19924074594833871</v>
+          </cell>
+          <cell r="E6">
+            <v>1.9223146347092782E-2</v>
+          </cell>
+          <cell r="F6">
+            <v>1.6186787274951879E-3</v>
+          </cell>
+          <cell r="G6">
+            <v>8.7643734756793427E-5</v>
+          </cell>
+          <cell r="J6">
+            <v>60</v>
+          </cell>
+          <cell r="M6">
+            <v>2.8284367468809587E-3</v>
+          </cell>
+          <cell r="N6">
+            <v>1.7040040186137063E-2</v>
+          </cell>
+          <cell r="O6">
+            <v>0.23926041638487994</v>
+          </cell>
+          <cell r="P6">
+            <v>7.7106159996156123</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1131,11 +4091,573 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246B835F-381A-4B9A-9815-5E1B436071F6}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>100</v>
+      </c>
+      <c r="G1">
+        <v>1000</v>
+      </c>
+      <c r="J1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>10</v>
+      </c>
+      <c r="O1">
+        <v>100</v>
+      </c>
+      <c r="P1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>800</v>
+      </c>
+      <c r="D2" s="4">
+        <v>51.474429633351562</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4.8726574514720165</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.39991855820272004</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.2483260491562816E-2</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>400</v>
+      </c>
+      <c r="L2">
+        <v>800</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1.5306463886158802E-2</v>
+      </c>
+      <c r="N2" s="5">
+        <v>6.2546465534989021E-2</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.76293015791541907</v>
+      </c>
+      <c r="P2" s="2">
+        <v>12.449172044802728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>600</v>
+      </c>
+      <c r="C3">
+        <v>1200</v>
+      </c>
+      <c r="D3" s="4">
+        <v>117.15571586872537</v>
+      </c>
+      <c r="E3" s="6">
+        <v>11.361441775709281</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.0133569900839439</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6.7179286525304222E-2</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>600</v>
+      </c>
+      <c r="L3">
+        <v>1200</v>
+      </c>
+      <c r="M3" s="5">
+        <v>5.3296656087759254E-3</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2.8894112967984116E-2</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.33557876748845655</v>
+      </c>
+      <c r="P3" s="2">
+        <v>7.1045069368166951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>800</v>
+      </c>
+      <c r="C4">
+        <v>1600</v>
+      </c>
+      <c r="D4" s="4">
+        <v>138.81344536977039</v>
+      </c>
+      <c r="E4" s="6">
+        <v>13.535044484289141</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.2362814937298803</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9.0469825503388779E-2</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>800</v>
+      </c>
+      <c r="L4">
+        <v>1600</v>
+      </c>
+      <c r="M4" s="5">
+        <v>3.2108627089847677E-3</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1.6537795578884695E-2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.21411880052495871</v>
+      </c>
+      <c r="P4" s="2">
+        <v>4.4535650873234269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>204.02286998274604</v>
+      </c>
+      <c r="E5" s="6">
+        <v>19.966325345267041</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.8656002222524819</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.14569657621072535</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>1000</v>
+      </c>
+      <c r="L5">
+        <v>2000</v>
+      </c>
+      <c r="M5" s="5">
+        <v>2.3133261318906396E-3</v>
+      </c>
+      <c r="N5" s="5">
+        <v>9.9313529840034491E-3</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.12494276291633979</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2.4286616609632308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>1200</v>
+      </c>
+      <c r="C6">
+        <v>2400</v>
+      </c>
+      <c r="D6" s="4">
+        <v>234.72008072797712</v>
+      </c>
+      <c r="E6" s="6">
+        <v>23.103680215464998</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.1831077094344211</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.17640442045589141</v>
+      </c>
+      <c r="J6">
+        <v>60</v>
+      </c>
+      <c r="K6">
+        <v>1200</v>
+      </c>
+      <c r="L6">
+        <v>2400</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1.4273064673695122E-3</v>
+      </c>
+      <c r="N6" s="5">
+        <v>6.56289603535129E-3</v>
+      </c>
+      <c r="O6" s="2">
+        <v>8.1261597593752816E-2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1.6173879558718265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D576B6F-ED2F-4B30-8F48-5C3AA1F324B8}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2:N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>600</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.3520870447158719</v>
+      </c>
+      <c r="E2" s="3">
+        <v>921.7</v>
+      </c>
+      <c r="F2" s="3">
+        <v>440.8</v>
+      </c>
+      <c r="G2" s="4">
+        <v>51.474429633351562</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1.5306463886158802E-2</v>
+      </c>
+      <c r="I2" s="6">
+        <v>4.8726574514720165</v>
+      </c>
+      <c r="J2" s="5">
+        <v>6.2546465534989021E-2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.39991855820272004</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.76293015791541907</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2.2483260491562816E-2</v>
+      </c>
+      <c r="N2" s="2">
+        <v>12.449172044802728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>600</v>
+      </c>
+      <c r="C3">
+        <v>900</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.8423515319824162</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2244.6999999999998</v>
+      </c>
+      <c r="F3" s="3">
+        <v>667.8</v>
+      </c>
+      <c r="G3" s="4">
+        <v>117.15571586872537</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5.3296656087759254E-3</v>
+      </c>
+      <c r="I3" s="6">
+        <v>11.361441775709281</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2.8894112967984116E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.0133569900839439</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.33557876748845655</v>
+      </c>
+      <c r="M3" s="2">
+        <v>6.7179286525304222E-2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>7.1045069368166951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>800</v>
+      </c>
+      <c r="C4">
+        <v>1200</v>
+      </c>
+      <c r="D4" s="2">
+        <v>16.570402979850719</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3109.3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>883.8</v>
+      </c>
+      <c r="G4" s="4">
+        <v>138.81344536977039</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3.2108627089847677E-3</v>
+      </c>
+      <c r="I4" s="6">
+        <v>13.535044484289141</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1.6537795578884695E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.2362814937298803</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.21411880052495871</v>
+      </c>
+      <c r="M4" s="2">
+        <v>9.0469825503388779E-2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4.4535650873234269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>1500</v>
+      </c>
+      <c r="D5" s="2">
+        <v>34.753484416007957</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4402.3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1113.4000000000001</v>
+      </c>
+      <c r="G5" s="4">
+        <v>204.02286998274604</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2.3133261318906396E-3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>19.966325345267041</v>
+      </c>
+      <c r="J5" s="5">
+        <v>9.9313529840034491E-3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1.8656002222524819</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.12494276291633979</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.14569657621072535</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2.4286616609632308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>1200</v>
+      </c>
+      <c r="C6">
+        <v>1800</v>
+      </c>
+      <c r="D6" s="2">
+        <v>67.418725180625856</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5699</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1322.9</v>
+      </c>
+      <c r="G6" s="4">
+        <v>234.72008072797712</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1.4273064673695122E-3</v>
+      </c>
+      <c r="I6" s="6">
+        <v>23.103680215464998</v>
+      </c>
+      <c r="J6" s="5">
+        <v>6.56289603535129E-3</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2.1831077094344211</v>
+      </c>
+      <c r="L6" s="2">
+        <v>8.1261597593752816E-2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.17640442045589141</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.6173879558718265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -6684,8 +10206,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
